--- a/Document/PKG Tool Cleanner System IO List_20240524.xlsx
+++ b/Document/PKG Tool Cleanner System IO List_20240524.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="240">
   <si>
     <t>X000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,22 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_Nozzle Backward_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_Nozzle Forward _M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_Brush Backward _M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_Brush Forward _M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_Nozzle_Power_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,14 +809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2_Nozzle Backward _M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_Nozzle Forward _M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2_Nozzle_Power_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,6 +846,34 @@
   </si>
   <si>
     <t>2_Air curtain sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Nozzle Fwd/Bwd_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Brush Fwd/Bwd _M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_Nozzle Fwd/Bwd _M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMO_Switch (Front)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMO_Switch (Rear)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0번축 - Brush 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번축 - Brush Up/Down 축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,8 +950,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +985,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1315,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1318,7 +1367,7 @@
         <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38114C3E-91E1-447A-978F-83BB46057757}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38114C3E-91E1-447A-978F-83BB46057757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1427,7 @@
         <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51B53547-06EC-4B6B-B2F9-A06EE3C7EBFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B53547-06EC-4B6B-B2F9-A06EE3C7EBFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1487,7 @@
         <xdr:cNvPr id="4" name="직선 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA3B5F6-2B9B-41E0-8C8C-92E8D742A999}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA3B5F6-2B9B-41E0-8C8C-92E8D742A999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1543,7 @@
         <xdr:cNvPr id="5" name="직선 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16937F82-A06F-4876-BEAF-EADBA8B24922}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16937F82-A06F-4876-BEAF-EADBA8B24922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1604,7 @@
         <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1664,7 @@
         <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1724,7 @@
         <xdr:cNvPr id="4" name="직선 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1780,7 @@
         <xdr:cNvPr id="5" name="직선 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1841,7 @@
         <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1901,7 @@
         <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1961,7 @@
         <xdr:cNvPr id="4" name="직선 연결선 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +2017,7 @@
         <xdr:cNvPr id="5" name="직선 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2078,7 @@
         <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2138,7 @@
         <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2198,7 @@
         <xdr:cNvPr id="5" name="직선 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2254,7 @@
         <xdr:cNvPr id="6" name="직선 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2630,7 +2679,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>34</v>
@@ -2652,7 +2701,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>35</v>
@@ -2674,7 +2723,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>36</v>
@@ -2695,7 +2744,9 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="32" t="s">
+        <v>237</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -2715,8 +2766,8 @@
       <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>135</v>
+      <c r="E10" s="33" t="s">
+        <v>236</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>38</v>
@@ -2772,7 +2823,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>25</v>
@@ -2794,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
@@ -2929,7 +2980,7 @@
         <v>80</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>96</v>
@@ -2949,7 +3000,7 @@
         <v>81</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>97</v>
@@ -3065,13 +3116,13 @@
         <v>70</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>102</v>
@@ -3081,8 +3132,8 @@
         <v>118</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="L28" s="14" t="s">
-        <v>176</v>
+      <c r="L28" s="35" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -3104,8 +3155,8 @@
         <v>119</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="L29" s="14" t="s">
-        <v>177</v>
+      <c r="L29" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="M29" t="s">
         <v>219</v>
@@ -3115,14 +3166,14 @@
       <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>221</v>
+      <c r="C30" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>227</v>
+      <c r="E30" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>104</v>
@@ -3132,7 +3183,7 @@
         <v>120</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="34" t="s">
         <v>178</v>
       </c>
       <c r="M30" t="s">
@@ -3146,15 +3197,11 @@
       <c r="B31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="6" t="s">
         <v>105</v>
       </c>
@@ -3168,14 +3215,14 @@
       <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>223</v>
+      <c r="C32" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>106</v>
@@ -3186,13 +3233,11 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="6" t="s">
         <v>91</v>
       </c>
@@ -3206,12 +3251,12 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>92</v>
@@ -3227,13 +3272,14 @@
         <v>124</v>
       </c>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L34" s="36"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>93</v>
@@ -3250,7 +3296,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>78</v>
       </c>
@@ -3270,7 +3316,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>79</v>
       </c>
